--- a/main/ig/FRImagingStudyLMCDAFHIR.xlsx
+++ b/main/ig/FRImagingStudyLMCDAFHIR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t>Property</t>
   </si>
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T13:54:24+00:00</t>
+    <t>2026-01-23T08:28:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>FRImagingStudyDocument.identifier:studyInstanceUid</t>
-  </si>
-  <si>
-    <t>FRCDADICOMExamenImagerie.description</t>
   </si>
   <si>
     <t>FRImagingStudyDocument.description</t>
@@ -636,14 +633,14 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -656,7 +653,7 @@
         <v>32</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -669,7 +666,7 @@
         <v>32</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -682,7 +679,7 @@
         <v>32</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2"/>
     </row>

--- a/main/ig/FRImagingStudyLMCDAFHIR.xlsx
+++ b/main/ig/FRImagingStudyLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-23T08:28:04+00:00</t>
+    <t>2026-01-28T14:36:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/FRImagingStudyLMCDAFHIR.xlsx
+++ b/main/ig/FRImagingStudyLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T14:36:08+00:00</t>
+    <t>2026-02-05T08:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
